--- a/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/E-エラーメッセージ確認クライアント.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/E-エラーメッセージ確認クライアント.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaku/Documents/workspaces/certificate-online/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F7B0DE-48E8-484A-816C-528C7EFB03F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642409D5-261C-5D49-9DEF-B00E0FB5B101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="9" xr2:uid="{42D8EAC3-321E-4145-B53B-236AB772C07C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{42D8EAC3-321E-4145-B53B-236AB772C07C}"/>
   </bookViews>
   <sheets>
-    <sheet name="ショット1" sheetId="1" r:id="rId1"/>
+    <sheet name="ショット1(固定項目)" sheetId="1" r:id="rId1"/>
     <sheet name="UT-USER02-E-002" sheetId="2" r:id="rId2"/>
     <sheet name="UT-USER02-E-004" sheetId="3" r:id="rId3"/>
     <sheet name="UT-USER02-E-006" sheetId="4" r:id="rId4"/>
     <sheet name="UT-USER02-E-008" sheetId="5" r:id="rId5"/>
-    <sheet name="ショット2" sheetId="6" r:id="rId6"/>
+    <sheet name="ショット2(生年月日)" sheetId="6" r:id="rId6"/>
     <sheet name="UT-USER02-E-016" sheetId="7" r:id="rId7"/>
     <sheet name="UT-USER02-E-018" sheetId="10" r:id="rId8"/>
     <sheet name="UT-USER02-E-020" sheetId="11" r:id="rId9"/>
@@ -707,6 +707,81 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59303B9-4340-0624-CC4D-6A78ADA65DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11023600" y="533400"/>
+          <a:ext cx="3276600" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -70045"/>
+            <a:gd name="adj2" fmla="val -4330"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クライアント側のチェックがエラーなしなので、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Confirm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ウインドが表示されます。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -900,9 +975,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -918,16 +993,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="7535" r="-78"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="16179800" cy="10112374"/>
+          <a:ext cx="16192500" cy="9350374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -940,13 +1014,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -962,7 +1036,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7391400" y="2895600"/>
+          <a:off x="7391400" y="2133600"/>
           <a:ext cx="3035300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1006,13 +1080,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1028,7 +1102,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="1371600"/>
+          <a:off x="7315200" y="609600"/>
           <a:ext cx="3098800" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2516,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7BA68C-8347-E247-B67C-C96DA606C83B}">
   <dimension ref="S4:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2584,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169E8C9C-40E0-FD42-8F1C-D9AD7B2B4915}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2617,7 +2691,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2665,7 +2739,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2713,7 +2787,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
